--- a/Arquivos/dadosMemoria.xlsx
+++ b/Arquivos/dadosMemoria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T.S\Dropbox\Estatística\Meus Livros\Bioestatística_R\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Dropbox\Estatistica\Meus_Livros\bookR\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D9A8A8-3734-4271-AB98-2FA65FFAB946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2CB3FB-6484-4272-B5BF-66584FEC36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15960" yWindow="615" windowWidth="14190" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
   <si>
     <t>sexo</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>escore</t>
+  </si>
+  <si>
+    <t>latencia</t>
   </si>
 </sst>
 </file>
@@ -603,9 +606,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +646,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -899,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +914,7 @@
     <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,533 +924,680 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="D25">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="D26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="D29">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="D30">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D31">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="D32">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>40</v>
+      </c>
+      <c r="D49">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
